--- a/data/trans_orig/Q21A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q21A-Provincia-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>2.281348514628607</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>1.97572103159044</v>
+        <v>1.975721031590441</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>1.384311052340463</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.092554186025662</v>
+        <v>1.093954377592154</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.97143133115775</v>
+        <v>1.995742173774629</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.492647388522318</v>
+        <v>1.506970170000109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.395389865306743</v>
+        <v>1.382943886433516</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.298922005562704</v>
+        <v>1.285987903109954</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.266403254379457</v>
+        <v>2.323094783055833</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.905391199871983</v>
+        <v>1.899059567001852</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.687619607394883</v>
+        <v>1.713087123006462</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.238393347222312</v>
+        <v>1.248832683210927</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.302608375937025</v>
+        <v>2.310873578896674</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.782361572507459</v>
+        <v>1.794822229761938</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.607858734319397</v>
+        <v>1.600625347443053</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.473438506394505</v>
+        <v>1.488754175317596</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.898818668996506</v>
+        <v>4.296126763301497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.250365842021611</v>
+        <v>2.436603501720733</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.858948891919942</v>
+        <v>1.845808663362209</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.766922654111098</v>
+        <v>1.750944448611956</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.505273001052257</v>
+        <v>3.51504821178876</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.112192888822907</v>
+        <v>3.041776874085737</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.583548627588299</v>
+        <v>2.783779269183138</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.580824806815663</v>
+        <v>1.569410222586905</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.459685011858775</v>
+        <v>3.387599769704378</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.473918468198214</v>
+        <v>2.470582506620801</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.141701563122827</v>
+        <v>2.135821071358615</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.225524761530077</v>
+        <v>1.229724853486774</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.39640238736662</v>
+        <v>1.434923652166237</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.275109046847434</v>
+        <v>1.291953143957683</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.71546393218908</v>
+        <v>1.720861305367348</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.468826220159633</v>
+        <v>1.461390650686277</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.559597027862659</v>
+        <v>1.559011279447839</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.394061372349636</v>
+        <v>1.399997982643092</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.886829154284621</v>
+        <v>1.885141387549878</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.417166769041005</v>
+        <v>1.412365412828829</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.549960101702656</v>
+        <v>1.557159289724585</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.390389441498565</v>
+        <v>1.392088844256243</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.949048973218051</v>
+        <v>1.974089817645764</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.6657013220341</v>
+        <v>1.68577441798797</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.630193613023128</v>
+        <v>2.649737635470589</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.694263425466402</v>
+        <v>1.720764037919622</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.061755723899405</v>
+        <v>6.756509070641999</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.205552781235039</v>
+        <v>2.34334877101932</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.926754113746536</v>
+        <v>1.935989647194471</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.869068961059698</v>
+        <v>1.87358711151137</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.649345358577109</v>
+        <v>3.736795921483624</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.907705647358175</v>
+        <v>1.926259863696008</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2.074681359087479</v>
+        <v>2.039282219476847</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.693669443833622</v>
+        <v>1.687477554438971</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.924496455777668</v>
+        <v>3.906549590102805</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>1.54974707294169</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>1.697775271267578</v>
+        <v>1.697775271267577</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.102243280320838</v>
+        <v>1.09853600252399</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.093647331160925</v>
+        <v>1.104191497492611</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.25152983333243</v>
+        <v>1.223854698884667</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.229218221453471</v>
+        <v>1.221958054959589</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.534083490642987</v>
+        <v>1.525173128309453</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.619714457871493</v>
+        <v>1.626194289247502</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.303177418435727</v>
+        <v>1.292785017929183</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.552244096669844</v>
+        <v>1.553509764295666</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.388719207116639</v>
+        <v>1.40599926943272</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.429508418572486</v>
+        <v>1.424200949701979</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.330202041769978</v>
+        <v>1.328185684629708</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.458989220240376</v>
+        <v>1.479036436208986</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.605018435433458</v>
+        <v>1.553528674044501</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.323086664360701</v>
+        <v>1.313521754445727</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.841869194244874</v>
+        <v>1.796251700534985</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.704556552823243</v>
+        <v>1.683043972366847</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.451007153830436</v>
+        <v>2.44974328419796</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.711796875582215</v>
+        <v>2.719208499693313</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.201416651833464</v>
+        <v>2.330434587817632</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.323920156211289</v>
+        <v>3.027621356658978</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.953314131574619</v>
+        <v>1.940751040907124</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2.105120700627883</v>
+        <v>2.044476409809127</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.943242000110321</v>
+        <v>1.95688874040223</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.497474350308522</v>
+        <v>2.717141603515039</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.215073210809933</v>
+        <v>1.230066978063411</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.468081303433081</v>
+        <v>1.506413352640582</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.68827258474296</v>
+        <v>1.715761263584307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.335940670596925</v>
+        <v>1.35858791220416</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.622653084291178</v>
+        <v>1.61162690226952</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.539362538419906</v>
+        <v>1.508528868824733</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.785693932758528</v>
+        <v>1.764481023587471</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.561807320218821</v>
+        <v>1.556006140834129</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.469740360186508</v>
+        <v>1.492873077580688</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.605056936737277</v>
+        <v>1.576439041711752</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.816333136749005</v>
+        <v>1.813346038052733</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.547554541517111</v>
+        <v>1.521269691085222</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.603178818417808</v>
+        <v>1.624783677608541</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.167652748114274</v>
+        <v>2.226439527015691</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.210237264514359</v>
+        <v>3.110779051783187</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.884725551176983</v>
+        <v>2.878631183127943</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2.35563276652713</v>
+        <v>2.351812099567319</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2.384016887081534</v>
+        <v>2.335340601283149</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.213890148504919</v>
+        <v>3.248714972756849</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.223054160175777</v>
+        <v>2.265022955591089</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.924776808226017</v>
+        <v>1.961370841938908</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2.158628676726404</v>
+        <v>2.174987845908587</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.796174304436434</v>
+        <v>2.743920575373503</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.238546757207296</v>
+        <v>2.194342709890504</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>1.727648542342091</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.138380531915884</v>
+        <v>1.138380531915885</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1.755722595574122</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.230007532470708</v>
+        <v>1.229992459633515</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.190088353925567</v>
+        <v>1.188060072645376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.374975894315768</v>
+        <v>1.352667541600554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.026063898542305</v>
+        <v>1.026718779776919</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.429871955772635</v>
+        <v>1.434241853815408</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.93943138646529</v>
+        <v>1.909453320114181</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.249959314821242</v>
+        <v>1.256031394335622</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.043368657256098</v>
+        <v>1.059831734241427</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.405332469491325</v>
+        <v>1.397652519703206</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.752529390353175</v>
+        <v>1.732214104682337</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.397368828872127</v>
+        <v>1.394790587703446</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.068289976406301</v>
+        <v>1.063659929716365</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.299973685096586</v>
+        <v>2.17405051503643</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.761377373751356</v>
+        <v>1.787279503210684</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.240386136995239</v>
+        <v>2.194483354340347</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.474387502697704</v>
+        <v>1.479422036544073</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.258349994388877</v>
+        <v>2.231369009434398</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.297194237785954</v>
+        <v>3.281899950513224</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.219933086568473</v>
+        <v>2.283573007062158</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.381696470815574</v>
+        <v>1.381142794004383</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.024670957615156</v>
+        <v>1.984140045769463</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2.783358076396103</v>
+        <v>2.765220263705725</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.089822143821353</v>
+        <v>2.012830420279428</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.371569594085758</v>
+        <v>1.344009471464029</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.19892196481316</v>
+        <v>1.194995818597705</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.293624908835257</v>
+        <v>1.281615430195694</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.169819068585594</v>
+        <v>1.166720036239469</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.297475383333521</v>
+        <v>1.295333872589138</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.545264883712383</v>
+        <v>1.58476242127598</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.243468988428755</v>
+        <v>1.24519631636118</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.375640364938284</v>
+        <v>1.370843954785606</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>1.648064191644703</v>
+        <v>1.640443673742484</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1.476197065817131</v>
+        <v>1.467684405677062</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.314935098267381</v>
+        <v>1.301074444872595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.317263829463249</v>
+        <v>1.318658930282718</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>1.515393183673326</v>
+        <v>1.532710283462636</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.659850088661083</v>
+        <v>1.699406692922671</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.011631120089944</v>
+        <v>2.107169334905119</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.461462028655906</v>
+        <v>1.448734866482117</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.903727242596681</v>
+        <v>1.886806267384103</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>2.306127148808167</v>
+        <v>2.328738008758608</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>1.614228681001497</v>
+        <v>1.621614650594913</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1.770389932554677</v>
+        <v>1.753528763547669</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.324632868330823</v>
+        <v>2.334186057718665</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>1.973061743560398</v>
+        <v>1.968391525389185</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1.732407944769683</v>
+        <v>1.674871102519683</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1.565380800256469</v>
+        <v>1.572884485424451</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>1.964849078436953</v>
+        <v>1.980628590205132</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.166033634333707</v>
+        <v>1.159770693432216</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.43216060880915</v>
+        <v>1.416650502717773</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.323374359896943</v>
+        <v>1.320121042890686</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.567849046329752</v>
+        <v>1.546482156756353</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.422610852516354</v>
+        <v>1.420292771005847</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.493981077078041</v>
+        <v>1.497532960354116</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.925747730941382</v>
+        <v>1.957484475420655</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.807044526187264</v>
+        <v>1.80295096355272</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.339494164859402</v>
+        <v>1.33429539729473</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.51122232578497</v>
+        <v>1.517342704675144</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1.767734028926113</v>
+        <v>1.7469931652292</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>1.772915044010372</v>
+        <v>1.771455260047134</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.464145901047624</v>
+        <v>1.477964875332169</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.08995018017328</v>
+        <v>2.079573043860612</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.967125075149913</v>
+        <v>2.001960646913513</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.30233677919034</v>
+        <v>2.256795674141701</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.779372377480723</v>
+        <v>1.766244648723507</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.956744430011296</v>
+        <v>1.942994793713656</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.834498800519281</v>
+        <v>2.818970519109062</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.528303893100543</v>
+        <v>2.534201114657369</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.584244735685291</v>
+        <v>1.582659900024047</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1.887211794268339</v>
+        <v>1.911737050580914</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2.340026735681645</v>
+        <v>2.340510016602802</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>2.341315083454399</v>
+        <v>2.282170596482883</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>1.518377359142723</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>1.858605028229555</v>
+        <v>1.858605028229556</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>1.676056770982557</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.29144463501542</v>
+        <v>1.298078495496577</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.306743594270389</v>
+        <v>1.293541555107863</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.184827448788892</v>
+        <v>1.202110149352599</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.511620037743525</v>
+        <v>1.494279218631281</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1.560526880485188</v>
+        <v>1.572098183158001</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1.457007649902233</v>
+        <v>1.442451217923279</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>1.367435827219041</v>
+        <v>1.361280543301601</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>1.533061634344423</v>
+        <v>1.537242787375527</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>1.511774625140622</v>
+        <v>1.509073801128753</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1.459803155777876</v>
+        <v>1.437566806500272</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1.316418958585809</v>
+        <v>1.316783021511248</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>1.596677989867798</v>
+        <v>1.614604245726348</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.120037712463962</v>
+        <v>2.21682476394797</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.037940717888467</v>
+        <v>1.991372611912377</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.549070731989576</v>
+        <v>1.591158729220058</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.677265200617358</v>
+        <v>2.43933333863846</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>2.129860800929052</v>
+        <v>2.124600873126837</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>2.159434408424527</v>
+        <v>2.18316147931361</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>1.764402163526357</v>
+        <v>1.735743720230251</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>2.521687278741102</v>
+        <v>2.576409737606536</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>2.022812779674274</v>
+        <v>1.970656798929114</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1.963190858972664</v>
+        <v>1.957191262321473</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1.598494184165053</v>
+        <v>1.58850481763064</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>2.32929064951231</v>
+        <v>2.358617690727453</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.285636992125998</v>
+        <v>1.289687458838959</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.586137838828688</v>
+        <v>1.59206517056897</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.501814102101368</v>
+        <v>1.501791384645148</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.620230660306427</v>
+        <v>1.625581868887394</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.630301431966152</v>
+        <v>1.636264974866902</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.780954205802509</v>
+        <v>1.771802039371374</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.765834553429465</v>
+        <v>1.755262954710756</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.84020643558623</v>
+        <v>1.83159529618659</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.514715864671328</v>
+        <v>1.516830748037695</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1.732600804626544</v>
+        <v>1.72294425068181</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1.677279389070349</v>
+        <v>1.675882378587727</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>1.784780176030655</v>
+        <v>1.791385728613549</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.47945140799032</v>
+        <v>1.473355191715866</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.953575068979874</v>
+        <v>1.972758161270785</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.813908829202131</v>
+        <v>1.808946213212082</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.116871613188637</v>
+        <v>2.124895071578136</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.870370427170107</v>
+        <v>1.865264440544339</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.054288112384162</v>
+        <v>2.030887026642202</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.101529422999084</v>
+        <v>2.088232809693034</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.204566527092521</v>
+        <v>2.182197057021666</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.671255861965747</v>
+        <v>1.681861570587043</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1.967696629474106</v>
+        <v>1.942860454783437</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1.913365929996939</v>
+        <v>1.90983566159839</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>2.079772603019152</v>
+        <v>2.076440309375555</v>
       </c>
     </row>
     <row r="31">
